--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4419049.787574779</v>
+        <v>4417169.607804451</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>237.9332843063845</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>300.8915849827645</v>
       </c>
     </row>
     <row r="3">
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>63.57678144609353</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>9.220846587376196</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>177.9364581348103</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>142.7973342657374</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>205.3743261851594</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>208.3423105940807</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.332975795529264</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>159.3308024881128</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.14167849255895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274076</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.351469801859</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>57.40955656862271</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896931</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>134.3803966972199</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856057</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808138</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S19" t="n">
-        <v>42.73130645904104</v>
+        <v>70.85949911216076</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.196701072866</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.0969919981167</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>207.5440020263835</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.7913288562259</v>
+        <v>168.791328856226</v>
       </c>
       <c r="C22" t="n">
-        <v>156.2061697729164</v>
+        <v>2.007706366893983</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F22" t="n">
-        <v>134.3803966972198</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H22" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856056</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808136</v>
+        <v>98.92370107808144</v>
       </c>
       <c r="S22" t="n">
-        <v>42.73130645904143</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.196701072866</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981167</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,25 +2476,25 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D25" t="n">
         <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972199</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>137.8731770418247</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>47.02844098084931</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S25" t="n">
         <v>186.8801586578919</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.750205128282274</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.41761368552054</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S28" t="n">
         <v>186.8801586578919</v>
@@ -2767,7 +2767,7 @@
         <v>210.5069097326779</v>
       </c>
       <c r="U28" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>241.0969919981166</v>
@@ -2776,10 +2776,10 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633258</v>
+        <v>116.240794024747</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="29">
@@ -2804,10 +2804,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
-        <v>70.41761368552089</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>80.05682971998473</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
@@ -3010,13 +3010,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,19 +3898,19 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789546</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>632.3182666762914</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4413,10 +4413,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1722.185086336931</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>1353.22256939652</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>994.9568707897693</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>609.168618191525</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>198.1827134019174</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>2112.324418312743</v>
+        <v>1344.046505337897</v>
       </c>
       <c r="Y5" t="n">
-        <v>1722.185086336931</v>
+        <v>1344.046505337897</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,7 +4650,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.6822058285749</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>517.6822058285749</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.6822058285749</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2695.802650820718</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2695.802650820718</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2695.802650820718</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2695.802650820718</v>
+        <v>2317.574219456838</v>
       </c>
       <c r="V8" t="n">
-        <v>2695.802650820718</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="W8" t="n">
-        <v>2695.802650820718</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>2695.802650820718</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>2305.663318844906</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.5111271432434</v>
+        <v>182.2302673832259</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5036,43 +5036,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823803</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514097</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
         <v>3931.29497012173</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>400.2445180358627</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1014.141587792751</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954969</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028576</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028576</v>
       </c>
     </row>
     <row r="14">
@@ -5252,55 +5252,55 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899129</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.995055864554</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>2013.406634128704</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O15" t="n">
-        <v>2292.946699347402</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>820.5263570570739</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>531.1091870201133</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>303.1196361220959</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>303.1196361220959</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003442</v>
@@ -5501,19 +5501,19 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514088</v>
@@ -5522,43 +5522,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1063.135664997202</v>
+        <v>254.2402400841912</v>
       </c>
       <c r="C19" t="n">
-        <v>905.3516551255688</v>
+        <v>254.2402400841912</v>
       </c>
       <c r="D19" t="n">
-        <v>766.3871887695071</v>
+        <v>254.2402400841912</v>
       </c>
       <c r="E19" t="n">
-        <v>629.6262682433882</v>
+        <v>254.2402400841912</v>
       </c>
       <c r="F19" t="n">
-        <v>493.888493801752</v>
+        <v>254.2402400841912</v>
       </c>
       <c r="G19" t="n">
-        <v>336.8653451778467</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>197.5995097820642</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5698,25 +5698,25 @@
         <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1443.272362858423</v>
+        <v>1414.860047047191</v>
       </c>
       <c r="T19" t="n">
-        <v>1443.272362858423</v>
+        <v>1202.226804892971</v>
       </c>
       <c r="U19" t="n">
-        <v>1443.272362858423</v>
+        <v>924.2503391628034</v>
       </c>
       <c r="V19" t="n">
-        <v>1443.272362858423</v>
+        <v>680.7180240131904</v>
       </c>
       <c r="W19" t="n">
-        <v>1443.272362858423</v>
+        <v>680.7180240131904</v>
       </c>
       <c r="X19" t="n">
-        <v>1443.272362858423</v>
+        <v>463.8806461714472</v>
       </c>
       <c r="Y19" t="n">
-        <v>1233.631956771167</v>
+        <v>254.2402400841912</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1063.135664997201</v>
+        <v>393.0291468394961</v>
       </c>
       <c r="C22" t="n">
-        <v>905.3516551255686</v>
+        <v>391.0011606103103</v>
       </c>
       <c r="D22" t="n">
-        <v>766.387188769507</v>
+        <v>391.0011606103103</v>
       </c>
       <c r="E22" t="n">
-        <v>629.626268243388</v>
+        <v>254.2402400841912</v>
       </c>
       <c r="F22" t="n">
-        <v>493.8884938017518</v>
+        <v>254.2402400841912</v>
       </c>
       <c r="G22" t="n">
-        <v>336.8653451778467</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H22" t="n">
-        <v>197.5995097820642</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J22" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
         <v>822.7849551969364</v>
@@ -5935,25 +5935,25 @@
         <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1443.272362858423</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T22" t="n">
-        <v>1443.272362858423</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U22" t="n">
-        <v>1443.272362858423</v>
+        <v>807.0577537630745</v>
       </c>
       <c r="V22" t="n">
-        <v>1443.272362858423</v>
+        <v>563.5254386134617</v>
       </c>
       <c r="W22" t="n">
-        <v>1443.272362858423</v>
+        <v>563.5254386134617</v>
       </c>
       <c r="X22" t="n">
-        <v>1443.272362858423</v>
+        <v>563.5254386134617</v>
       </c>
       <c r="Y22" t="n">
-        <v>1233.631956771167</v>
+        <v>563.5254386134617</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106754</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203137</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.96990386717</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085867</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1010.256722413655</v>
+        <v>393.9655676879803</v>
       </c>
       <c r="C25" t="n">
-        <v>852.4727125420219</v>
+        <v>236.1815578163475</v>
       </c>
       <c r="D25" t="n">
-        <v>713.5082461859603</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E25" t="n">
-        <v>576.7473256598413</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F25" t="n">
-        <v>441.009551218205</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G25" t="n">
-        <v>283.9864025942998</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7205671985175</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J25" t="n">
         <v>120.5300287366501</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937159</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L25" t="n">
         <v>540.2879676172995</v>
       </c>
       <c r="M25" t="n">
-        <v>822.7849551969368</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N25" t="n">
-        <v>1104.259309036939</v>
+        <v>1104.259309036938</v>
       </c>
       <c r="O25" t="n">
         <v>1349.06453185479</v>
@@ -6169,28 +6169,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S25" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T25" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="U25" t="n">
-        <v>1397.590392029364</v>
+        <v>1295.899577679501</v>
       </c>
       <c r="V25" t="n">
-        <v>1397.590392029364</v>
+        <v>1052.367262529888</v>
       </c>
       <c r="W25" t="n">
-        <v>1397.590392029364</v>
+        <v>774.1022655492019</v>
       </c>
       <c r="X25" t="n">
-        <v>1180.75301418762</v>
+        <v>774.1022655492019</v>
       </c>
       <c r="Y25" t="n">
-        <v>1180.75301418762</v>
+        <v>564.4618594619459</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747284</v>
       </c>
       <c r="P27" t="n">
         <v>2317.834075963124</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729328</v>
+        <v>236.1815578163475</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729328</v>
+        <v>236.1815578163475</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729328</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729328</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L28" t="n">
-        <v>540.287967617299</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969362</v>
+        <v>822.7849551969365</v>
       </c>
       <c r="N28" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P28" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q28" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449753</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953624</v>
+        <v>841.5019043436303</v>
       </c>
       <c r="W28" t="n">
-        <v>385.183372014676</v>
+        <v>563.2369073629438</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729328</v>
+        <v>445.8219639036035</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729328</v>
+        <v>236.1815578163475</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.345994172933</v>
+        <v>453.8079629081075</v>
       </c>
       <c r="C31" t="n">
-        <v>168.345994172933</v>
+        <v>453.8079629081075</v>
       </c>
       <c r="D31" t="n">
-        <v>168.345994172933</v>
+        <v>314.843496552046</v>
       </c>
       <c r="E31" t="n">
-        <v>168.345994172933</v>
+        <v>178.082576025927</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>178.082576025927</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>178.082576025927</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>178.082576025927</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172994</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
         <v>1586.358229057537</v>
@@ -6646,25 +6646,25 @@
         <v>1586.358229057537</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1397.590392029364</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1184.957149875144</v>
       </c>
       <c r="U31" t="n">
-        <v>906.9806841449755</v>
+        <v>906.9806841449761</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953627</v>
+        <v>663.4483689953634</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146763</v>
+        <v>663.4483689953634</v>
       </c>
       <c r="X31" t="n">
-        <v>168.345994172933</v>
+        <v>663.4483689953634</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.345994172933</v>
+        <v>453.8079629081075</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6795,7 +6795,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108323</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229664</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504504</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,16 +6859,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6877,13 +6877,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.26110100452</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010309</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6962,19 +6962,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7102,19 +7102,19 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2292.946699347402</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2497.969180129611</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,34 +7330,34 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7555,31 +7555,31 @@
         <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254952</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>474.8900731662877</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506727</v>
@@ -7795,7 +7795,7 @@
         <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,13 +7825,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8298,10 +8298,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>113.6026921294539</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,10 +9009,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>199.6230805871081</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>38.86002301949887</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>306.114737013996</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>182.0340742867936</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>189.0022427662454</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>94.13752431970465</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9878,7 +9878,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504486</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>297.3877236703336</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>50.62661940943605</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>104.8749102765748</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>38.86002301949857</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11145,22 +11145,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>158.8724419039332</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>189.0022427662469</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>122.4224236133146</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>168.791328856226</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>99.37859413856063</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>144.1488521988508</v>
+        <v>116.0206595457311</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>275.4823470108796</v>
+        <v>275.4823470108797</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633258</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>154.1984634060225</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>99.37859413856064</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24175,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>144.1488521988504</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108796</v>
+        <v>275.4823470108797</v>
       </c>
       <c r="X22" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263835</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I25" t="n">
-        <v>52.35015315771126</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>273.4464959445837</v>
       </c>
       <c r="V25" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D28" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>135.3933113208578</v>
       </c>
       <c r="F28" t="n">
-        <v>63.96278301169932</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H28" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I28" t="n">
         <v>99.3785941385606</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>98.42821003857881</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562259</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.574821692501</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>135.3933113208578</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>63.96278301169896</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376662</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H31" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856057</v>
+        <v>19.32176441857581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808139</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>593672.527571995</v>
+        <v>593672.5275719949</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>598410.4508542635</v>
+        <v>598410.4508542634</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>598410.4508542636</v>
+        <v>598410.4508542635</v>
       </c>
     </row>
     <row r="12">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.119475418</v>
       </c>
       <c r="F2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="G2" t="n">
+        <v>788375.350518444</v>
+      </c>
+      <c r="H2" t="n">
+        <v>788375.3505184435</v>
+      </c>
+      <c r="I2" t="n">
+        <v>788375.3505184439</v>
+      </c>
+      <c r="J2" t="n">
         <v>788375.3505184437</v>
       </c>
-      <c r="H2" t="n">
-        <v>788375.3505184436</v>
-      </c>
-      <c r="I2" t="n">
-        <v>788375.3505184436</v>
-      </c>
-      <c r="J2" t="n">
-        <v>788375.3505184433</v>
-      </c>
       <c r="K2" t="n">
-        <v>788375.3505184435</v>
+        <v>788375.3505184434</v>
       </c>
       <c r="L2" t="n">
         <v>821041.7698642844</v>
@@ -26347,13 +26347,13 @@
         <v>821041.7698642844</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642844</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642843</v>
       </c>
       <c r="P2" t="n">
-        <v>821041.7698642845</v>
+        <v>821041.7698642844</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.28238008105184e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569126</v>
+        <v>8832.521060569117</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>147917.0487159208</v>
+      </c>
+      <c r="C4" t="n">
         <v>147917.0487159209</v>
-      </c>
-      <c r="C4" t="n">
-        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007401</v>
       </c>
       <c r="G4" t="n">
-        <v>11549.65615884679</v>
+        <v>11549.65615884669</v>
       </c>
       <c r="H4" t="n">
-        <v>11549.65615884679</v>
+        <v>11549.65615884669</v>
       </c>
       <c r="I4" t="n">
-        <v>11549.65615884679</v>
+        <v>11549.65615884678</v>
       </c>
       <c r="J4" t="n">
-        <v>11549.6561588468</v>
+        <v>11549.65615884677</v>
       </c>
       <c r="K4" t="n">
-        <v>11549.65615884676</v>
+        <v>11549.65615884681</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26470,28 +26470,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
+        <v>92915.5024650179</v>
+      </c>
+      <c r="H5" t="n">
+        <v>92915.5024650179</v>
+      </c>
+      <c r="I5" t="n">
+        <v>92915.5024650179</v>
+      </c>
+      <c r="J5" t="n">
         <v>92915.50246501787</v>
-      </c>
-      <c r="H5" t="n">
-        <v>92915.50246501787</v>
-      </c>
-      <c r="I5" t="n">
-        <v>92915.50246501787</v>
-      </c>
-      <c r="J5" t="n">
-        <v>92915.50246501785</v>
       </c>
       <c r="K5" t="n">
         <v>92915.50246501787</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>297.7638704085257</v>
+        <v>297.763870408322</v>
       </c>
       <c r="C6" t="n">
-        <v>590265.6430849527</v>
+        <v>590265.6430849528</v>
       </c>
       <c r="D6" t="n">
-        <v>590265.643084953</v>
+        <v>590265.6430849525</v>
       </c>
       <c r="E6" t="n">
-        <v>156994.0253937975</v>
+        <v>156896.5662678254</v>
       </c>
       <c r="F6" t="n">
-        <v>682154.0618706937</v>
+        <v>682056.6027447216</v>
       </c>
       <c r="G6" t="n">
-        <v>675077.67083401</v>
+        <v>674996.0047856456</v>
       </c>
       <c r="H6" t="n">
-        <v>683910.191894579</v>
+        <v>683828.5258462144</v>
       </c>
       <c r="I6" t="n">
-        <v>683910.191894579</v>
+        <v>683828.5258462146</v>
       </c>
       <c r="J6" t="n">
-        <v>507486.9727019856</v>
+        <v>507405.3066536217</v>
       </c>
       <c r="K6" t="n">
-        <v>683910.1918945789</v>
+        <v>683828.5258462143</v>
       </c>
       <c r="L6" t="n">
         <v>638485.6330432185</v>
       </c>
       <c r="M6" t="n">
-        <v>558190.1299130939</v>
+        <v>558190.1299130938</v>
       </c>
       <c r="N6" t="n">
-        <v>692991.1451469312</v>
+        <v>692991.1451469311</v>
       </c>
       <c r="O6" t="n">
-        <v>692991.1451469312</v>
+        <v>692991.1451469309</v>
       </c>
       <c r="P6" t="n">
-        <v>692991.1451469312</v>
+        <v>692991.1451469311</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="I2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K2" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964062</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,31 +26735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,25 +26790,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>116.7497573142985</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>85.34635367328912</v>
       </c>
     </row>
     <row r="3">
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>82.85718120047564</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>216.488808801661</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>204.7973835286703</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>270.9868357550575</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>19.66077927292486</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>17.36734479495641</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>53.14542677928245</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>91.8933650201765</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>19.4295499393364</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.4429748595358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28336,16 +28336,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-1.54335762560769e-12</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571133</v>
       </c>
     </row>
     <row r="20">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571133</v>
       </c>
     </row>
     <row r="23">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="N25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="O25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="P25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="R25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="S25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="26">
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="N28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="O28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="P28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="R28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="S28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="C31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="D31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="E31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="F31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="G31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="I31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="M31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="N31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="O31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="P31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="R31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="S31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="T31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="U31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="V31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="W31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="X31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.0406513257114</v>
+        <v>11.04065132571144</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,43 +32309,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,37 +32473,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>264.1781307173931</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>510.0474576375746</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>245.9534379510236</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>555.3724419700203</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>515.2286476848067</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127694</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K19" t="n">
         <v>162.743079855622</v>
@@ -36048,10 +36048,10 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M19" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N19" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O19" t="n">
         <v>247.2780028463143</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758617</v>
+        <v>50.26635129758613</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>499.4266198167119</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127689</v>
       </c>
       <c r="K22" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L22" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N22" t="n">
         <v>284.317529131315</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758612</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>343.3952292757292</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127695</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M25" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N25" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O25" t="n">
         <v>247.2780028463143</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758618</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>504.4811386018584</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127692</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K28" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M28" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N28" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758615</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,19 +36920,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>383.821192807449</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127697</v>
       </c>
       <c r="K31" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M31" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N31" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O31" t="n">
         <v>247.2780028463143</v>
@@ -37008,7 +37008,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758616</v>
+        <v>50.2663512975862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686865</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>438.0694836745878</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>126.8730558045727</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>441.2361441450414</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38032,13 +38032,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>339.5776813541862</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
